--- a/需求文档/参考资料/服装分类.xlsx
+++ b/需求文档/参考资料/服装分类.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="3820" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="6525" yWindow="3825" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -513,13 +513,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,13 +529,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -560,36 +567,108 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -598,7 +677,7 @@
   <a:themeElements>
     <a:clrScheme name="办公室">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -915,667 +994,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F78" sqref="F2:F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4" t="s">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
       <c r="C32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
       <c r="C33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
       <c r="C39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
       <c r="C41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
       <c r="C42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4" t="s">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
       <c r="C44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4" t="s">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
       <c r="C46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
       <c r="C47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
       <c r="C48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
       <c r="C54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="6" t="s">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="6" t="s">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="6" t="s">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="6" t="s">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2" t="s">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="6" t="s">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="6" t="s">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="6" t="s">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3" t="s">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="4" t="s">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="6" t="s">
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="6" t="s">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="3" t="s">
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="6"/>
+      <c r="B76" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="3" t="s">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="2" t="s">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="6" t="s">
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="6" t="s">
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="6" t="s">
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="6" t="s">
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="F82" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A35:A48"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A17:A34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="B64:B66"/>
@@ -1583,25 +1761,6 @@
     <mergeCell ref="B78:B82"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A17:A34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A35:A48"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B17:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
